--- a/AfDD_2024_Annex_Table_Tab04.xlsx
+++ b/AfDD_2024_Annex_Table_Tab04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF4F8CEE-8076-4942-87D0-2AF29D56E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E009792-3B38-4016-90BF-80908D8B0357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{4D551713-79E0-4BC1-B49B-8B4660899343}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83581423-4CD8-401F-B850-947E6EBF600B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -1441,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4031F9-D6E7-4A28-8D0B-1C40473EE2C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94ECC4F-0488-4AD7-AF85-EFF063E37973}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14941,12 +14941,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{48CFD73F-49CA-42B3-BB70-11D18C8410D0}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{287613CA-2935-492D-BE30-88F3062EC467}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{ADBF0A2A-3431-405B-9B4E-C59E8D658108}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{A3C6E162-5C64-41A3-B5A9-5F54FDDC9242}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{AE41ED2B-5E56-4D49-ABCF-2D1E07FAD403}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{8A99C46A-3F3F-4A14-B466-150647A91DB1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D25B1068-FD85-4656-B4FE-283CC537FD8F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{30F2C303-C0AA-4F8B-85A8-B157F5795A43}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{286263E2-43ED-4960-BA67-53E1BB401D06}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{3F181BF4-638C-46E1-8633-2C5571BD0F31}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{9C107FAA-F249-4BC4-82C9-8C91A063CD34}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5F4B8B5D-5605-45E4-96A6-A053F4653696}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab04.xlsx
+++ b/AfDD_2024_Annex_Table_Tab04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2104F59-10B3-4434-BF1A-ED7325BECB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE36C9A-1E77-4317-9885-3790C55BE785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F3C1D66A-6132-4921-9FCD-A8F639684E0A}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{626431A6-0E85-4F7C-860B-C910401B6A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -1438,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C48213-C3EB-44BA-AEB3-4AEFF68E525B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23449581-4058-4190-9B00-F11C55B26E7F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14938,12 +14938,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C95333D5-284A-4456-A3B3-6F419D27BE77}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DA6C8EB0-CAF5-4219-BBF6-6ED2ECED6F0B}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{336BFDD0-25A6-4C06-B8D3-9593D73E1807}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{62CB772A-D143-43B4-BEA9-4366ABF024E6}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{42A0CD46-B6F6-4EB8-A2F8-4FD74D3CE0A2}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{AF81B1AB-6ABA-47C2-B897-8931D4BC402C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3B85EDE5-13A7-4D19-99F1-744F7C8C01F9}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2CCF92A4-BFAF-4809-B2F8-318521E1BE7F}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0909ED8C-5000-4BBA-82AC-ABE65D00616F}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{9DB53304-455A-4A89-9A63-D3F2637B3753}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{2A94AB3E-F5F6-406C-A1E6-FE939392077F}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{C7C636EB-4ECB-47AE-9176-15F4D68DB00D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>
